--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3412.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3412.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.405909328883611</v>
+        <v>1.600915312767029</v>
       </c>
       <c r="B1">
-        <v>1.990704251399308</v>
+        <v>4.229971885681152</v>
       </c>
       <c r="C1">
-        <v>3.697801342813746</v>
+        <v>3.899255037307739</v>
       </c>
       <c r="D1">
-        <v>4.943551413526719</v>
+        <v>1.818310022354126</v>
       </c>
       <c r="E1">
-        <v>0.9717287145009423</v>
+        <v>1.053126573562622</v>
       </c>
     </row>
   </sheetData>
